--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmet/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1554978C-E38C-484F-9A40-CB2D004501F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF31D7D2-F535-AF4A-AC6F-10615E6034E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,52 +156,52 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>Delete Accounts</t>
-  </si>
-  <si>
-    <t>Search Items</t>
-  </si>
-  <si>
-    <t>Post Items</t>
-  </si>
-  <si>
-    <t>Delete Items</t>
-  </si>
-  <si>
-    <t>Purchase Item</t>
-  </si>
-  <si>
-    <t>User Profile</t>
-  </si>
-  <si>
-    <t>Ratings</t>
-  </si>
-  <si>
-    <t>Add pictures</t>
-  </si>
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Dark Mode</t>
-  </si>
-  <si>
-    <t>Smooth Interface</t>
+    <t>Login @xiyuanzhou</t>
+  </si>
+  <si>
+    <t>Logout @xiyuanzhou</t>
+  </si>
+  <si>
+    <t>Create Account @xiyuanzhou</t>
+  </si>
+  <si>
+    <t>Delete Accounts @xiyuanzhou</t>
+  </si>
+  <si>
+    <t>Post Items @seafu47</t>
+  </si>
+  <si>
+    <t>Delete Items @seafu47</t>
+  </si>
+  <si>
+    <t>Purchase Item @seafu47</t>
+  </si>
+  <si>
+    <t>Sorting @seafu47</t>
+  </si>
+  <si>
+    <t>Turkish @ahmetmutlugun</t>
+  </si>
+  <si>
+    <t>Dark Mode @ahmetmutlugun</t>
+  </si>
+  <si>
+    <t>Add pictures @ahmetmutlugun</t>
+  </si>
+  <si>
+    <t>Smooth Interface @everyone</t>
+  </si>
+  <si>
+    <t>Search Items @ahmetmutlugun</t>
+  </si>
+  <si>
+    <t>User Profile @RommelAquinoJr</t>
+  </si>
+  <si>
+    <t>Ratings @RommelAquinoJr</t>
+  </si>
+  <si>
+    <t>Chinese @seafu47</t>
   </si>
 </sst>
 </file>
@@ -638,1137 +638,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="113">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -2488,13 +1358,13 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.6640625" style="1"/>
@@ -2900,7 +1770,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -2928,7 +1798,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -2952,7 +1822,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -2972,7 +1842,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -2995,7 +1865,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -3021,7 +1891,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -3075,7 +1945,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -3098,7 +1968,7 @@
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -3125,7 +1995,7 @@
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -3146,7 +2016,7 @@
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -3176,7 +2046,7 @@
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -3529,111 +2399,111 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="J7:L7 K5 P5:BO5 M6 H11:BO11 K8 H9:J9 Q8:BO8 S9:BO9 H10:L10 Q10:BO10 H12:M12 H13:I13 Q12:BO12 R13:BO13 H14:L14 T14:BO15 W17:BO17 L13:M13 J6:K6 H20 H16:O18 H19:I19 T19:BO20 Q18:BO18 S16:BO16 H15:J15 O15 M15 O6:BO7">
-    <cfRule type="expression" dxfId="112" priority="185">
+    <cfRule type="expression" dxfId="32" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="187">
+    <cfRule type="expression" dxfId="31" priority="187">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="188">
+    <cfRule type="expression" dxfId="30" priority="188">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="189">
+    <cfRule type="expression" dxfId="29" priority="189">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="190">
+    <cfRule type="expression" dxfId="28" priority="190">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="191">
+    <cfRule type="expression" dxfId="27" priority="191">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="195">
+    <cfRule type="expression" dxfId="26" priority="195">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="196">
+    <cfRule type="expression" dxfId="25" priority="196">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="104" priority="192">
+    <cfRule type="expression" dxfId="24" priority="192">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="103" priority="205">
+    <cfRule type="expression" dxfId="23" priority="205">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="206">
+    <cfRule type="expression" dxfId="22" priority="206">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="207">
+    <cfRule type="expression" dxfId="21" priority="207">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="208">
+    <cfRule type="expression" dxfId="20" priority="208">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="209">
+    <cfRule type="expression" dxfId="19" priority="209">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="210">
+    <cfRule type="expression" dxfId="18" priority="210">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="211">
+    <cfRule type="expression" dxfId="17" priority="211">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="212">
+    <cfRule type="expression" dxfId="16" priority="212">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="87" priority="153">
+    <cfRule type="expression" dxfId="15" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="154">
+    <cfRule type="expression" dxfId="14" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="155">
+    <cfRule type="expression" dxfId="13" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="156">
+    <cfRule type="expression" dxfId="12" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="157">
+    <cfRule type="expression" dxfId="11" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="158">
+    <cfRule type="expression" dxfId="10" priority="158">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="159">
+    <cfRule type="expression" dxfId="9" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="160">
+    <cfRule type="expression" dxfId="8" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmet/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmet/PycharmProjects/CMPE131_final-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF31D7D2-F535-AF4A-AC6F-10615E6034E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717AA0B-1644-814E-AA59-A5CD2D7AF7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,17 +198,17 @@
     <t>User Profile @RommelAquinoJr</t>
   </si>
   <si>
-    <t>Ratings @RommelAquinoJr</t>
-  </si>
-  <si>
     <t>Chinese @seafu47</t>
+  </si>
+  <si>
+    <t>Translation @RommelAquinoJr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -314,8 +314,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +364,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF735773"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -443,6 +456,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -501,7 +529,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -638,7 +669,120 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1358,7 +1502,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1511,9 @@
     <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.6640625" style="1"/>
+    <col min="8" max="16" width="2.6640625" style="1"/>
+    <col min="17" max="19" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1690,8 +1836,8 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1714,7 +1860,7 @@
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1738,7 +1884,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -1765,8 +1911,11 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -1785,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -1793,8 +1942,9 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -1813,12 +1963,12 @@
         <v>6</v>
       </c>
       <c r="G10" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="16"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -1837,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1857,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -1880,18 +2030,20 @@
         <v>6</v>
       </c>
       <c r="G13" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1906,15 +2058,17 @@
         <v>7</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -1942,6 +2096,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -1960,15 +2115,18 @@
         <v>3</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1983,15 +2141,14 @@
         <v>7</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -2010,9 +2167,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
@@ -2031,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
@@ -2039,10 +2201,12 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
@@ -2061,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="8">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
@@ -2069,10 +2233,12 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
@@ -2398,112 +2564,138 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="J7:L7 K5 P5:BO5 M6 H11:BO11 K8 H9:J9 Q8:BO8 S9:BO9 H10:L10 Q10:BO10 H12:M12 H13:I13 Q12:BO12 R13:BO13 H14:L14 T14:BO15 W17:BO17 L13:M13 J6:K6 H20 H16:O18 H19:I19 T19:BO20 Q18:BO18 S16:BO16 H15:J15 O15 M15 O6:BO7">
-    <cfRule type="expression" dxfId="32" priority="185">
+  <conditionalFormatting sqref="J7:L7 K5 P5:BO5 M6 H11:BO11 K8 H9:J9 H10:L10 Q10:BO10 H12:M12 H13:I13 Q12:BO12 H14:L14 T13:BO13 L13:M13 J6:K6 H20 H16:O18 H19:I19 H15:J15 O15 M15 O6:BO7 T8:BO9 V18:BO20 W16:BO17 T15:BO15 V14:BO14">
+    <cfRule type="expression" dxfId="40" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="187">
+    <cfRule type="expression" dxfId="39" priority="187">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="188">
+    <cfRule type="expression" dxfId="38" priority="188">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="189">
+    <cfRule type="expression" dxfId="37" priority="189">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="190">
+    <cfRule type="expression" dxfId="36" priority="190">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="191">
+    <cfRule type="expression" dxfId="35" priority="191">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="195">
+    <cfRule type="expression" dxfId="34" priority="195">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="196">
+    <cfRule type="expression" dxfId="33" priority="196">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="24" priority="192">
+    <cfRule type="expression" dxfId="32" priority="192">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="23" priority="205">
+    <cfRule type="expression" dxfId="31" priority="205">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="206">
+    <cfRule type="expression" dxfId="30" priority="206">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="207">
+    <cfRule type="expression" dxfId="29" priority="207">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="208">
+    <cfRule type="expression" dxfId="28" priority="208">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="209">
+    <cfRule type="expression" dxfId="27" priority="209">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="210">
+    <cfRule type="expression" dxfId="26" priority="210">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="211">
+    <cfRule type="expression" dxfId="25" priority="211">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="212">
+    <cfRule type="expression" dxfId="24" priority="212">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="15" priority="153">
+    <cfRule type="expression" dxfId="23" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="154">
+    <cfRule type="expression" dxfId="22" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="155">
+    <cfRule type="expression" dxfId="21" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="156">
+    <cfRule type="expression" dxfId="20" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="157">
+    <cfRule type="expression" dxfId="19" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="158">
+    <cfRule type="expression" dxfId="18" priority="158">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="159">
+    <cfRule type="expression" dxfId="17" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="160">
+    <cfRule type="expression" dxfId="16" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15">
+    <cfRule type="expression" dxfId="7" priority="221">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="222">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="223">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="224">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="225">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="226">
+      <formula>V$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="227">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="228">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2512,9 +2704,9 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 M5 K9:R9 O8:P8 N12:P12 K15 R14:S15 P17:V17 H5:H8 P19:S20 P10 P18 R16 M14:O14 P13:Q16 O13 N5:N7" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 K9:P9 N12:P12 K15 U15 H5:H8 M14:O14 P14:Q15 R15 S15" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 J13 I5:I8 J19:J20 L15" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2 N15 J8 K13 N13 M7:M8 L5 L8 N8 M10:O10 K19:O20" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2 N15 J8 K13 N13:S13 M7:M8 L5:N5 L8 N8:O8 M10:P10 K19:P20 N6:N7 S16:U16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
